--- a/my_package/traj_excel_10/tested_robot_traj_4_.xlsx
+++ b/my_package/traj_excel_10/tested_robot_traj_4_.xlsx
@@ -426,19 +426,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>-2.561171122214548</v>
+        <v>2.561171122214548</v>
       </c>
       <c r="C1" t="n">
-        <v>1.571048036966904</v>
+        <v>-0.0002517101720076429</v>
       </c>
       <c r="D1" t="n">
-        <v>1.400073368420803</v>
+        <v>-1.400073368420803</v>
       </c>
       <c r="E1" t="n">
-        <v>1.399822193902046</v>
+        <v>0.1709741328928501</v>
       </c>
       <c r="F1" t="n">
-        <v>-1.570796365408233</v>
+        <v>1.570796365408233</v>
       </c>
       <c r="G1" t="n">
         <v>0.9903747278261085</v>
@@ -449,19 +449,19 @@
         <v>0.2107455406146856</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.555848965682979</v>
+        <v>2.555848965682979</v>
       </c>
       <c r="C2" t="n">
-        <v>1.570615983513027</v>
+        <v>0.0001803432818697641</v>
       </c>
       <c r="D2" t="n">
-        <v>1.398460229945526</v>
+        <v>-1.398460229945526</v>
       </c>
       <c r="E2" t="n">
-        <v>1.398641107009634</v>
+        <v>0.1721552197852622</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.570796365220714</v>
+        <v>1.570796365220714</v>
       </c>
       <c r="G2" t="n">
         <v>0.9850525714503057</v>
@@ -472,19 +472,19 @@
         <v>0.4214910812293712</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.522657562997278</v>
+        <v>2.522657562997278</v>
       </c>
       <c r="C3" t="n">
-        <v>1.567921500537126</v>
+        <v>0.002874826257770738</v>
       </c>
       <c r="D3" t="n">
-        <v>1.388399960503409</v>
+        <v>-1.388399960503409</v>
       </c>
       <c r="E3" t="n">
-        <v>1.391275308874927</v>
+        <v>0.1795210179199698</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.570796364051259</v>
+        <v>1.570796364051259</v>
       </c>
       <c r="G3" t="n">
         <v>0.9518611697360345</v>
@@ -495,19 +495,19 @@
         <v>0.6322366218440568</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.444161474445256</v>
+        <v>2.444161474445256</v>
       </c>
       <c r="C4" t="n">
-        <v>1.56154917646631</v>
+        <v>0.00924715032858687</v>
       </c>
       <c r="D4" t="n">
-        <v>1.364607901804851</v>
+        <v>-1.364607901804851</v>
       </c>
       <c r="E4" t="n">
-        <v>1.373855546651759</v>
+        <v>0.1969407801431379</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.570796361285554</v>
+        <v>1.570796361285554</v>
       </c>
       <c r="G4" t="n">
         <v>0.873365083481396</v>
@@ -518,19 +518,19 @@
         <v>0.8429821624587425</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.312809919049192</v>
+        <v>2.312809919049192</v>
       </c>
       <c r="C5" t="n">
-        <v>1.550886037784759</v>
+        <v>0.01991028901013736</v>
       </c>
       <c r="D5" t="n">
-        <v>1.324795422307113</v>
+        <v>-1.324795422307113</v>
       </c>
       <c r="E5" t="n">
-        <v>1.34470615965872</v>
+        <v>0.2260901671361768</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.570796356657557</v>
+        <v>1.570796356657557</v>
       </c>
       <c r="G5" t="n">
         <v>0.7420135319296621</v>
@@ -541,19 +541,19 @@
         <v>1.053727703073428</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.129289331443423</v>
+        <v>2.129289331443423</v>
       </c>
       <c r="C6" t="n">
-        <v>1.535987809357549</v>
+        <v>0.03480851743734772</v>
       </c>
       <c r="D6" t="n">
-        <v>1.269170579423171</v>
+        <v>-1.269170579423171</v>
       </c>
       <c r="E6" t="n">
-        <v>1.303979480685029</v>
+        <v>0.2668168461098673</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.570796350191454</v>
+        <v>1.570796350191454</v>
       </c>
       <c r="G6" t="n">
         <v>0.558492949695081</v>
@@ -564,19 +564,19 @@
         <v>1.264473243688114</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.900875918751935</v>
+        <v>1.900875918751935</v>
       </c>
       <c r="C7" t="n">
-        <v>1.517445174754468</v>
+        <v>0.05335115204042857</v>
       </c>
       <c r="D7" t="n">
-        <v>1.199938781730575</v>
+        <v>-1.199938781730575</v>
       </c>
       <c r="E7" t="n">
-        <v>1.25329023729641</v>
+        <v>0.3175060894984869</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.570796342143612</v>
+        <v>1.570796342143612</v>
       </c>
       <c r="G7" t="n">
         <v>0.3300795436886814</v>
@@ -587,19 +587,19 @@
         <v>1.475218784302799</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.639788217465948</v>
+        <v>1.639788217465948</v>
       </c>
       <c r="C8" t="n">
-        <v>1.496250036573842</v>
+        <v>0.07454629022105426</v>
       </c>
       <c r="D8" t="n">
-        <v>1.120803451180303</v>
+        <v>-1.120803451180303</v>
       </c>
       <c r="E8" t="n">
-        <v>1.195349953140961</v>
+        <v>0.3754463736539357</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.570796332944535</v>
+        <v>1.570796332944535</v>
       </c>
       <c r="G8" t="n">
         <v>0.06899185004407737</v>
@@ -610,19 +610,19 @@
         <v>1.685964324917485</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.361539650321506</v>
+        <v>1.361539650321506</v>
       </c>
       <c r="C9" t="n">
-        <v>1.473661776766355</v>
+        <v>0.09713455002854179</v>
       </c>
       <c r="D9" t="n">
-        <v>1.036466685305622</v>
+        <v>-1.036466685305622</v>
       </c>
       <c r="E9" t="n">
-        <v>1.133601349255035</v>
+        <v>0.437194977539862</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.570796323140818</v>
+        <v>1.570796323140818</v>
       </c>
       <c r="G9" t="n">
         <v>-0.2092567089567264</v>
@@ -633,19 +633,19 @@
         <v>1.896709865532171</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.083291083177064</v>
+        <v>1.083291083177064</v>
       </c>
       <c r="C10" t="n">
-        <v>1.451073516958867</v>
+        <v>0.1197228098360293</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9521299194309416</v>
+        <v>-0.9521299194309416</v>
       </c>
       <c r="E10" t="n">
-        <v>1.071852745369108</v>
+        <v>0.4989435814257883</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.570796313337101</v>
+        <v>1.570796313337101</v>
       </c>
       <c r="G10" t="n">
         <v>-0.4875052679575304</v>
@@ -656,19 +656,19 @@
         <v>2.107455406146856</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.8222033818910772</v>
+        <v>0.8222033818910772</v>
       </c>
       <c r="C11" t="n">
-        <v>1.429878378778242</v>
+        <v>0.140917948016655</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8729945888806701</v>
+        <v>-0.8729945888806701</v>
       </c>
       <c r="E11" t="n">
-        <v>1.013912461213659</v>
+        <v>0.5568838655812371</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.570796304138024</v>
+        <v>1.570796304138024</v>
       </c>
       <c r="G11" t="n">
         <v>-0.748592961602134</v>
@@ -679,19 +679,19 @@
         <v>2.318200946761542</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.5937899691995894</v>
+        <v>0.5937899691995894</v>
       </c>
       <c r="C12" t="n">
-        <v>1.411335744175161</v>
+        <v>0.1594605826197359</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8037627911880737</v>
+        <v>-0.8037627911880737</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9632232178250399</v>
+        <v>0.6075731089698566</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.570796296090182</v>
+        <v>1.570796296090182</v>
       </c>
       <c r="G12" t="n">
         <v>-0.977006367608534</v>
@@ -702,19 +702,19 @@
         <v>2.528946487376227</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.410269381593821</v>
+        <v>0.410269381593821</v>
       </c>
       <c r="C13" t="n">
-        <v>1.39643751574795</v>
+        <v>0.1743588110469463</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7481379483041316</v>
+        <v>-0.7481379483041316</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9224965388513493</v>
+        <v>0.6482997879435473</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.570796289624078</v>
+        <v>1.570796289624078</v>
       </c>
       <c r="G13" t="n">
         <v>-1.160526949843115</v>
@@ -725,19 +725,19 @@
         <v>2.739692027990913</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2789178261977563</v>
+        <v>0.2789178261977563</v>
       </c>
       <c r="C14" t="n">
-        <v>1.3857743770664</v>
+        <v>0.1850219497284968</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7083254688063935</v>
+        <v>-0.7083254688063935</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8933471518583104</v>
+        <v>0.6774491749365862</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.570796284996081</v>
+        <v>1.570796284996081</v>
       </c>
       <c r="G14" t="n">
         <v>-1.291878501394849</v>
@@ -748,19 +748,19 @@
         <v>2.950437568605599</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2004217376457329</v>
+        <v>0.2004217376457329</v>
       </c>
       <c r="C15" t="n">
-        <v>1.379402052995584</v>
+        <v>0.1913942737993129</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6845334101078362</v>
+        <v>-0.6845334101078362</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8759273896351421</v>
+        <v>0.6948689371597545</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.570796282230376</v>
+        <v>1.570796282230376</v>
       </c>
       <c r="G15" t="n">
         <v>-1.370374587649487</v>
@@ -771,19 +771,19 @@
         <v>3.161183109220284</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1672303349600339</v>
+        <v>0.1672303349600339</v>
       </c>
       <c r="C16" t="n">
-        <v>1.376707570019682</v>
+        <v>0.194088756775214</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6744731406657185</v>
+        <v>-0.6744731406657185</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8685615915004347</v>
+        <v>0.7022347352944619</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.570796281060922</v>
+        <v>1.570796281060922</v>
       </c>
       <c r="G16" t="n">
         <v>-1.403565989363758</v>
@@ -794,19 +794,19 @@
         <v>3.37192864983497</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1619081784284635</v>
+        <v>0.1619081784284635</v>
       </c>
       <c r="C17" t="n">
-        <v>1.376275516565805</v>
+        <v>0.1945208102290914</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6728600021904421</v>
+        <v>-0.6728600021904421</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8673805046080224</v>
+        <v>0.7034158221868742</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.570796280873402</v>
+        <v>1.570796280873402</v>
       </c>
       <c r="G17" t="n">
         <v>-1.40888814573956</v>
